--- a/m02/doc/TdMainControl.xlsx
+++ b/m02/doc/TdMainControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089C6B7D-1753-432B-B482-231C39519D53}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF68C750-97E8-4B8D-88B1-37610A5F0F6B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setting.ini" sheetId="5" r:id="rId1"/>
@@ -399,6 +399,11 @@
 gendir=C:\Project\angular\m02\my-app\src\app\state\src_x000D_
 genrdir=..\my-app\src\app\state\src_x000D_
 _x000D_
+[macro]
+; This section has macro defines for converting.
+; commentline format  {%0} will be replaced to a comment.
+commentline=// {%0}
+@branch=this.{%0}(this.{%1})
 [jpn]_x000D_
 title=Angular typescript サンプル１_x000D_
 _x000D_
@@ -451,6 +456,7 @@
 [2018.6.12]_x000D_
 @@@_x000D_
 </t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1071,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -1168,7 +1174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
